--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,51 +52,51 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
@@ -106,16 +106,19 @@
     <t>better</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>work</t>
+    <t>2</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>2</t>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
@@ -127,9 +130,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -160,18 +160,18 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
@@ -181,10 +181,13 @@
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -559,7 +562,7 @@
         <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7183098591549296</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>0.8125</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6875</v>
+        <v>0.671875</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.734375</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6727272727272727</v>
+        <v>0.6397849462365591</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6621621621621622</v>
+        <v>0.6262135922330098</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>0.5509325681492109</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L8">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M8">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6559139784946236</v>
+        <v>0.5878378378378378</v>
       </c>
       <c r="C9">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>45</v>
@@ -967,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5825242718446602</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>0.4813278008298755</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="L10">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M10">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5378151260504201</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>0.4377049180327869</v>
+        <v>0.4409836065573771</v>
       </c>
       <c r="L11">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M11">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4869565217391305</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K12">
-        <v>0.382262996941896</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4578313253012048</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K13">
-        <v>0.325</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4075829383886256</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="C14">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>0.3227513227513227</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>128</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3707865168539326</v>
+        <v>0.3507109004739337</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>0.3192771084337349</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3684210526315789</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K16">
-        <v>0.1807228915662651</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.359375</v>
+        <v>0.3203125</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K17">
-        <v>0.1720430107526882</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3543307086614173</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>0.1454864154250657</v>
+        <v>0.1516213847502191</v>
       </c>
       <c r="L18">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M18">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2871287128712871</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K19">
-        <v>0.08122157244964262</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L19">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1414</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2371134020618557</v>
+        <v>0.19</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K20">
-        <v>0.07754010695187166</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1884057971014493</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,31 +1538,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K21">
-        <v>0.04005340453938585</v>
+        <v>0.07797270955165692</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="N21">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>719</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.162202380952381</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="C22">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>0.02</v>
@@ -1585,7 +1588,31 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>563</v>
+        <v>558</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22">
+        <v>0.04533333333333334</v>
+      </c>
+      <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1593,13 +1620,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1580459770114943</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1611,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1645,25 +1672,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1487341772151899</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1671,25 +1698,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1428571428571428</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1697,13 +1724,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1277533039647577</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1715,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>396</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1723,13 +1750,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1161048689138577</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1741,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>236</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1749,25 +1776,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0779510022271715</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>414</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1775,25 +1802,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.06589785831960461</v>
+        <v>0.078125</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>567</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1801,25 +1828,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04974489795918367</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F31">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>745</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1827,25 +1854,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.04754601226993865</v>
+        <v>0.03934010152284264</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F32">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>621</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
